--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Intro Fraction Comparison 5.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Intro Fraction Comparison 5.xlsx_with_dialog_acts.xlsx
@@ -2033,12 +2033,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2679,12 +2679,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2717,12 +2717,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3515,12 +3515,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3819,12 +3819,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3857,12 +3857,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4355,12 +4355,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4431,12 +4431,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4925,12 +4925,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6219,12 +6219,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -6447,12 +6447,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6675,12 +6675,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6751,12 +6751,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6789,12 +6789,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6907,12 +6907,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7059,12 +7059,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
